--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">BuildingProjectID</t>
   </si>
@@ -104,25 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">1000193632</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1000193632</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">qashree15@gmail.com</t>
@@ -144,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,11 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,7 +206,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,7 +229,7 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -333,7 +309,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -375,20 +351,20 @@
       <c r="N2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">InsightModelsID</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193599</t>
+    <t xml:space="preserve">10001935991</t>
   </si>
   <si>
     <t xml:space="preserve">1000193627</t>
@@ -229,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">InsightModelsID</t>
   </si>
   <si>
-    <t xml:space="preserve">10001935991</t>
+    <t xml:space="preserve">1000193599</t>
   </si>
   <si>
     <t xml:space="preserve">1000193627</t>

--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">InsightModelsID</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193599</t>
+    <t xml:space="preserve">10001935991</t>
   </si>
   <si>
     <t xml:space="preserve">1000193627</t>

--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">InsightModelsID</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193599</t>
+    <t xml:space="preserve">10001935991</t>
   </si>
   <si>
     <t xml:space="preserve">1000193627</t>
@@ -233,16 +233,16 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.14"/>

--- a/TestData/STG_RebootTestData.xlsx
+++ b/TestData/STG_RebootTestData.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">InsightModelsID</t>
   </si>
   <si>
-    <t xml:space="preserve">1000193599</t>
+    <t xml:space="preserve">10001935991</t>
   </si>
   <si>
     <t xml:space="preserve">1000193627</t>
@@ -233,7 +233,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
